--- a/data/trans_orig/P25C$cursos_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25C$cursos_2023-Edad-trans_orig.xlsx
@@ -992,16 +992,16 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8806</v>
+        <v>8747</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.08340083012350175</v>
+        <v>0.08340083012350173</v>
       </c>
       <c r="O9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4342250944245438</v>
+        <v>0.4313174839055796</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1013,16 +1013,16 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7518</v>
+        <v>9540</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.06324074472436435</v>
+        <v>0.06324074472436433</v>
       </c>
       <c r="V9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2811025119702115</v>
+        <v>0.3567020904886996</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5649</v>
+        <v>5506</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03173691859444144</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1658002311520957</v>
+        <v>0.1616232915268639</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5890</v>
+        <v>4875</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01808015497448387</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09849227012242752</v>
+        <v>0.0815268006563903</v>
       </c>
     </row>
     <row r="12">
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6083</v>
+        <v>6721</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04747212003723694</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2363797680705193</v>
+        <v>0.2611591994941471</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6369</v>
+        <v>6888</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02042780303190321</v>
+        <v>0.02042780303190322</v>
       </c>
       <c r="V12" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1064959416129705</v>
+        <v>0.1151829524728939</v>
       </c>
     </row>
     <row r="13">
@@ -1310,19 +1310,19 @@
         <v>20336</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11712</v>
+        <v>13560</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24332</v>
+        <v>24689</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7902556414440207</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4551286410493317</v>
+        <v>0.5269142402335726</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.945517555075759</v>
+        <v>0.9593769464333167</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>29</v>
@@ -1331,7 +1331,7 @@
         <v>32988</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>28420</v>
+        <v>28563</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>34069</v>
@@ -1340,7 +1340,7 @@
         <v>0.9682630814055585</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8341997688479043</v>
+        <v>0.8383767084731364</v>
       </c>
       <c r="P15" s="6" t="n">
         <v>1</v>
@@ -1352,19 +1352,19 @@
         <v>53323</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>43239</v>
+        <v>43296</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>57355</v>
+        <v>57536</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.8916644184662305</v>
+        <v>0.8916644184662306</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7230331910636525</v>
+        <v>0.7239904207742163</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9590849403467634</v>
+        <v>0.9621048622685419</v>
       </c>
     </row>
     <row r="16">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12524</v>
+        <v>11344</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1622722385187424</v>
@@ -1393,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4866611094941471</v>
+        <v>0.4408309256732452</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>14486</v>
+        <v>14088</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06982762352738238</v>
+        <v>0.06982762352738239</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2422259294049463</v>
+        <v>0.2355726057132638</v>
       </c>
     </row>
     <row r="17">
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5974</v>
+        <v>5681</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02305975867314252</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1212233430697957</v>
+        <v>0.1152827997309022</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4119</v>
+        <v>3111</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0117060617922018</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07289527684545784</v>
+        <v>0.05506935362129078</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5807</v>
+        <v>5920</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01699551864020424</v>
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05489903197554866</v>
+        <v>0.0559670121040243</v>
       </c>
     </row>
     <row r="19">
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8309</v>
+        <v>7736</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03364094337063236</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1686103384442432</v>
+        <v>0.1569740759187369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1587,19 +1587,19 @@
         <v>2492</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7130</v>
+        <v>6927</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04411321577245195</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01340126040098555</v>
+        <v>0.01338642213652469</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1261914309583039</v>
+        <v>0.1225924326677278</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -1608,19 +1608,19 @@
         <v>4150</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1519</v>
+        <v>1095</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11213</v>
+        <v>10369</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.03923439669256807</v>
+        <v>0.03923439669256808</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01436417395159763</v>
+        <v>0.01035260877417497</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1060047349240764</v>
+        <v>0.09802421018991099</v>
       </c>
     </row>
     <row r="20">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3730</v>
+        <v>3893</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01335841471717358</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06601983315949403</v>
+        <v>0.06889700929275983</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1674,16 +1674,16 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3907</v>
+        <v>3725</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.007135000533655599</v>
+        <v>0.0071350005336556</v>
       </c>
       <c r="V20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03693846595636661</v>
+        <v>0.03521223145386607</v>
       </c>
     </row>
     <row r="21">
@@ -1747,19 +1747,19 @@
         <v>43050</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34275</v>
+        <v>34810</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47061</v>
+        <v>46985</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8735415413831964</v>
+        <v>0.8735415413831963</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6954848093295866</v>
+        <v>0.7063463913931279</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9549384453897567</v>
+        <v>0.9533825651702063</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -1768,19 +1768,19 @@
         <v>51312</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46444</v>
+        <v>46378</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>54308</v>
+        <v>54223</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.9081694879141884</v>
+        <v>0.9081694879141885</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8219968523531763</v>
+        <v>0.8208323685515756</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9611936203702894</v>
+        <v>0.9596880363512555</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -1789,19 +1789,19 @@
         <v>94362</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85561</v>
+        <v>84910</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>99484</v>
+        <v>99643</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8920370307214928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8088375389269845</v>
+        <v>0.8026774326493229</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9404510757953315</v>
+        <v>0.9419539320816933</v>
       </c>
     </row>
     <row r="23">
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11523</v>
+        <v>11377</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06975775657302871</v>
+        <v>0.0697577565730287</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2338154469658405</v>
+        <v>0.2308483847109567</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4</v>
@@ -1839,19 +1839,19 @@
         <v>2506</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6031</v>
+        <v>5866</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.04435958848551026</v>
+        <v>0.04435958848551027</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01204646138011451</v>
+        <v>0.0119698604025485</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1067472877401499</v>
+        <v>0.1038249751779326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -1860,19 +1860,19 @@
         <v>5944</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1968</v>
+        <v>2331</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>14277</v>
+        <v>15408</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0561920793055497</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01860528857629193</v>
+        <v>0.02203400806629357</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1349667564900718</v>
+        <v>0.1456577473551947</v>
       </c>
     </row>
     <row r="24">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4223</v>
+        <v>4706</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01454212728553001</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0456671351254402</v>
+        <v>0.05088187265243981</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5016</v>
+        <v>4674</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0065325412999767</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02436293996694341</v>
+        <v>0.02270351736313193</v>
       </c>
     </row>
     <row r="26">
@@ -2003,19 +2003,19 @@
         <v>4976</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1321</v>
+        <v>1378</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>11464</v>
+        <v>11641</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04388433974030704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01165218871637372</v>
+        <v>0.0121544053881405</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1010989920203898</v>
+        <v>0.1026581400251665</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -2024,19 +2024,19 @@
         <v>2113</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5590</v>
+        <v>5627</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0228526832430878</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00722514206882017</v>
+        <v>0.007302699699360484</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06044362449655901</v>
+        <v>0.06084440160548481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2045,19 +2045,19 @@
         <v>7090</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3056</v>
+        <v>2988</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14535</v>
+        <v>13430</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03443660475783879</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.014842965241184</v>
+        <v>0.01451297148424292</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07059940624931979</v>
+        <v>0.06523644428156569</v>
       </c>
     </row>
     <row r="27">
@@ -2077,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5254</v>
+        <v>6124</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.009484700011734636</v>
+        <v>0.009484700011734635</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04633826173182851</v>
+        <v>0.05401049760326931</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3575</v>
+        <v>3315</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.00768163890238587</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03865265035388583</v>
+        <v>0.03585014532219899</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5684</v>
+        <v>5661</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.008674737966159449</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02760793856194882</v>
+        <v>0.02749851280144592</v>
       </c>
     </row>
     <row r="28">
@@ -2148,16 +2148,16 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>4712</v>
+        <v>4669</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.00816597956008536</v>
+        <v>0.008165979560085359</v>
       </c>
       <c r="H28" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04155675891286782</v>
+        <v>0.04117643382628353</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>6</v>
@@ -2166,19 +2166,19 @@
         <v>4078</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1411</v>
+        <v>1871</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8356</v>
+        <v>8791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04409476312890537</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01525226420226038</v>
+        <v>0.02022928512374817</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09035240617210434</v>
+        <v>0.09505592124556296</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -2187,19 +2187,19 @@
         <v>5004</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2258</v>
+        <v>2095</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>10647</v>
+        <v>9843</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02430572706145559</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01096782093870494</v>
+        <v>0.01017715351200554</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05171861124763493</v>
+        <v>0.04781101177049035</v>
       </c>
     </row>
     <row r="29">
@@ -2216,19 +2216,19 @@
         <v>103920</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>96631</v>
+        <v>97128</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>109236</v>
+        <v>109079</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9164647950295424</v>
+        <v>0.9164647950295423</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8521849923427228</v>
+        <v>0.85657119858244</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9633453498795803</v>
+        <v>0.9619621312124587</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>125</v>
@@ -2237,19 +2237,19 @@
         <v>83891</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>78552</v>
+        <v>78368</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>87468</v>
+        <v>87558</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9071151644215674</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.849386967666293</v>
+        <v>0.8473968461594474</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9457920572989349</v>
+        <v>0.9467665820760158</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>218</v>
@@ -2258,19 +2258,19 @@
         <v>187811</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>177873</v>
+        <v>178592</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>194082</v>
+        <v>193963</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9122648009786791</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8639919971912347</v>
+        <v>0.8674864792942945</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9427271928484056</v>
+        <v>0.9421470861412475</v>
       </c>
     </row>
     <row r="30">
@@ -2287,19 +2287,19 @@
         <v>3421</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>9139</v>
+        <v>9390</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.03016616521841597</v>
+        <v>0.03016616521841596</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.00788788273446064</v>
+        <v>0.007955675111318575</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08059809467998443</v>
+        <v>0.08281344038634224</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>5</v>
@@ -2308,19 +2308,19 @@
         <v>3480</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1362</v>
+        <v>1369</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7625</v>
+        <v>7143</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03763443639029696</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01473225752759873</v>
+        <v>0.01480058322395608</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08245154293070901</v>
+        <v>0.07723726227971295</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>8</v>
@@ -2329,19 +2329,19 @@
         <v>6901</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>3169</v>
+        <v>2913</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>13923</v>
+        <v>13439</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03352102444305518</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01539495876090707</v>
+        <v>0.01415176080908338</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06762973088221157</v>
+        <v>0.06527838688554798</v>
       </c>
     </row>
     <row r="31">
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2190</v>
+        <v>1997</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.004205072196550332</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02367694427732694</v>
+        <v>0.02159076328591424</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1792</v>
+        <v>2034</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001888981388622717</v>
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.008702863510677105</v>
+        <v>0.009878727789039235</v>
       </c>
     </row>
     <row r="32">
@@ -2428,16 +2428,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6273</v>
+        <v>5218</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.006303784586670667</v>
+        <v>0.006303784586670666</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03800053280029956</v>
+        <v>0.03160927732342499</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2948</v>
+        <v>2992</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006260104504066243</v>
@@ -2458,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03125720023613612</v>
+        <v>0.0317182832290698</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6437</v>
+        <v>5804</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006287901595148357</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02481471802668957</v>
+        <v>0.02237564189076874</v>
       </c>
     </row>
     <row r="33">
@@ -2496,19 +2496,19 @@
         <v>10713</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>5897</v>
+        <v>5323</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>19428</v>
+        <v>18639</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06489420543872707</v>
+        <v>0.06489420543872705</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03571979438186147</v>
+        <v>0.0322442094608489</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1176869963042714</v>
+        <v>0.1129069824264266</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -2517,19 +2517,19 @@
         <v>4003</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>1377</v>
+        <v>1364</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8495</v>
+        <v>8225</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.04243374803635358</v>
+        <v>0.04243374803635359</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01460279607790945</v>
+        <v>0.0144634733435684</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0900603490562366</v>
+        <v>0.08720081979332406</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>16</v>
@@ -2538,19 +2538,19 @@
         <v>14715</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>8553</v>
+        <v>8294</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>22777</v>
+        <v>23310</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05672711340870949</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0329697832050411</v>
+        <v>0.03197228080815386</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08780293546735765</v>
+        <v>0.08985829916850914</v>
       </c>
     </row>
     <row r="34">
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6509</v>
+        <v>5746</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01114250848404261</v>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03942707524386418</v>
+        <v>0.03480424166112581</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>7</v>
@@ -2588,19 +2588,19 @@
         <v>4367</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1858</v>
+        <v>1823</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>8651</v>
+        <v>8516</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.04629654350104616</v>
+        <v>0.04629654350104617</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01969578167609319</v>
+        <v>0.01932611642907832</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09171832821522327</v>
+        <v>0.09027898907491301</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>9</v>
@@ -2609,19 +2609,19 @@
         <v>6206</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2899</v>
+        <v>2728</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>11327</v>
+        <v>10803</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.02392525079720622</v>
+        <v>0.02392525079720623</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01117600101835992</v>
+        <v>0.0105175234196655</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04366566864232101</v>
+        <v>0.04164380911131579</v>
       </c>
     </row>
     <row r="35">
@@ -2638,19 +2638,19 @@
         <v>2521</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6688</v>
+        <v>6388</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01527236999814243</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004306918156047968</v>
+        <v>0.004333620874869066</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04051382141830993</v>
+        <v>0.03869626897349109</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>5</v>
@@ -2659,19 +2659,19 @@
         <v>3458</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1354</v>
+        <v>731</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7641</v>
+        <v>7580</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.03665958623852411</v>
+        <v>0.03665958623852413</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01435171824115649</v>
+        <v>0.007746354349195809</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.08100892308850233</v>
+        <v>0.0803593411369741</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -2680,19 +2680,19 @@
         <v>5979</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2814</v>
+        <v>2470</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>11088</v>
+        <v>11412</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0230492090968255</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01084676855172301</v>
+        <v>0.009522708671289355</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04274539245422104</v>
+        <v>0.04399067278602346</v>
       </c>
     </row>
     <row r="36">
@@ -2709,19 +2709,19 @@
         <v>139599</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>129368</v>
+        <v>129916</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>147500</v>
+        <v>147730</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.8456328953156796</v>
+        <v>0.8456328953156795</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.7836601941442326</v>
+        <v>0.7869762760456963</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.8934976395090263</v>
+        <v>0.8948914871252938</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>129</v>
@@ -2730,19 +2730,19 @@
         <v>81364</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>75570</v>
+        <v>74734</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>86144</v>
+        <v>86132</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.8625840083794398</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.8011627128332731</v>
+        <v>0.7922900719838714</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.9132553958024981</v>
+        <v>0.9131283651195349</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>280</v>
@@ -2751,19 +2751,19 @@
         <v>220963</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>209446</v>
+        <v>210177</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>230520</v>
+        <v>231139</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.851796674526531</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.8074014098988594</v>
+        <v>0.8102189025591509</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.8886393915878731</v>
+        <v>0.8910239553830109</v>
       </c>
     </row>
     <row r="37">
@@ -2780,19 +2780,19 @@
         <v>8702</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4629</v>
+        <v>4423</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>16149</v>
+        <v>14974</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.05271341385833256</v>
+        <v>0.05271341385833255</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02803786381968076</v>
+        <v>0.02679181992160597</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09782125945692359</v>
+        <v>0.09070383159588478</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -2801,19 +2801,19 @@
         <v>1851</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5156</v>
+        <v>5438</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01962081937971718</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0055231218971307</v>
+        <v>0.005557577446949869</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05466283979558621</v>
+        <v>0.05764992877595274</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>13</v>
@@ -2822,19 +2822,19 @@
         <v>10553</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>5436</v>
+        <v>5838</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>17467</v>
+        <v>18350</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.04068025443610535</v>
+        <v>0.04068025443610537</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02095569442029488</v>
+        <v>0.02250402046390751</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.06733302895678477</v>
+        <v>0.07073620525841896</v>
       </c>
     </row>
     <row r="38">
@@ -2854,16 +2854,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5533</v>
+        <v>6019</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01034460690507579</v>
+        <v>0.01034460690507578</v>
       </c>
       <c r="H38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03351399970547707</v>
+        <v>0.03646287576691296</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>0</v>
@@ -2888,16 +2888,16 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>6071</v>
+        <v>5787</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.006583091496258629</v>
+        <v>0.00658309149625863</v>
       </c>
       <c r="V38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.02340375404410901</v>
+        <v>0.02231037411000832</v>
       </c>
     </row>
     <row r="39">
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>2984</v>
+        <v>2949</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.003421245842346191</v>
+        <v>0.00342124584234619</v>
       </c>
       <c r="H39" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01739172892359175</v>
+        <v>0.01718518505578086</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>4</v>
@@ -2939,19 +2939,19 @@
         <v>2411</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>5691</v>
+        <v>5844</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.04961023458917859</v>
+        <v>0.04961023458917858</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01259957195525801</v>
+        <v>0.01363755752157947</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1171121422234962</v>
+        <v>0.120258121012816</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>5</v>
@@ -2960,19 +2960,19 @@
         <v>2998</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1143</v>
+        <v>1104</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>6753</v>
+        <v>7441</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.01361509734399275</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.005189435590015024</v>
+        <v>0.005012332934287882</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03066568340289971</v>
+        <v>0.03379271331949123</v>
       </c>
     </row>
     <row r="40">
@@ -2989,19 +2989,19 @@
         <v>7299</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>13604</v>
+        <v>13325</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.04253483566103104</v>
+        <v>0.04253483566103102</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.017428948810182</v>
+        <v>0.01743666181287161</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07927591275500728</v>
+        <v>0.07765005605119557</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3593</v>
+        <v>3084</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01254288322845352</v>
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07394135517252508</v>
+        <v>0.06346607587694567</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>9</v>
@@ -3031,19 +3031,19 @@
         <v>7909</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3706</v>
+        <v>3690</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13819</v>
+        <v>14261</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03591564962476802</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01683089324896795</v>
+        <v>0.01675597343344074</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.06275832955940877</v>
+        <v>0.06476305258959547</v>
       </c>
     </row>
     <row r="41">
@@ -3063,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>3725</v>
+        <v>2728</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.003898231503779832</v>
+        <v>0.003898231503779831</v>
       </c>
       <c r="H41" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02170850968410479</v>
+        <v>0.01589867343447712</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>3442</v>
+        <v>3074</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01264608890549885</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.07083250218474685</v>
+        <v>0.06326220699668937</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -3105,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>4460</v>
+        <v>5192</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.005828872587945564</v>
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02025415473437273</v>
+        <v>0.02357933498325765</v>
       </c>
     </row>
     <row r="42">
@@ -3131,19 +3131,19 @@
         <v>3918</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1556</v>
+        <v>1705</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7888</v>
+        <v>8274</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02282988230591194</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.009068847121012309</v>
+        <v>0.009933800887579105</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.04596653654183337</v>
+        <v>0.04821779962243391</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>4</v>
@@ -3152,19 +3152,19 @@
         <v>2418</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>5528</v>
+        <v>5532</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.04974997171342887</v>
+        <v>0.04974997171342888</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0129161637896107</v>
+        <v>0.01328799214423827</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1137491859896623</v>
+        <v>0.1138234322705182</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>10</v>
@@ -3173,19 +3173,19 @@
         <v>6335</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3200</v>
+        <v>3248</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>11228</v>
+        <v>11897</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0287711120508497</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0145343503351048</v>
+        <v>0.01475149417517871</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05098874386881934</v>
+        <v>0.05402600210316738</v>
       </c>
     </row>
     <row r="43">
@@ -3202,19 +3202,19 @@
         <v>155344</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>146978</v>
+        <v>148408</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>161065</v>
+        <v>161483</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.905258097608954</v>
+        <v>0.9052580976089537</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.8565022991863379</v>
+        <v>0.8648371385392198</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.9385959509656878</v>
+        <v>0.9410304757644898</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>78</v>
@@ -3223,19 +3223,19 @@
         <v>42749</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>38677</v>
+        <v>38279</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>45539</v>
+        <v>45676</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.8796447839535803</v>
+        <v>0.8796447839535804</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.7958556137137804</v>
+        <v>0.7876614450684732</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.9370476968989145</v>
+        <v>0.9398738387386519</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>292</v>
@@ -3244,19 +3244,19 @@
         <v>198093</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>189457</v>
+        <v>189844</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>204789</v>
+        <v>204773</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.8996052716226765</v>
+        <v>0.8996052716226761</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.8603871341113942</v>
+        <v>0.862141923944217</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.9300151034665779</v>
+        <v>0.9299387485091812</v>
       </c>
     </row>
     <row r="44">
@@ -3273,19 +3273,19 @@
         <v>3785</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1479</v>
+        <v>1286</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8605</v>
+        <v>8074</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.02205770707797719</v>
+        <v>0.02205770707797718</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.008618041757573958</v>
+        <v>0.007493501099733028</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.05014592943697641</v>
+        <v>0.04704904917892303</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>3920</v>
+        <v>3924</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.02265658673213426</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.08067002915835976</v>
+        <v>0.08074660864137137</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>7</v>
@@ -3315,19 +3315,19 @@
         <v>4886</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2033</v>
+        <v>1948</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>10011</v>
+        <v>9821</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.02218987906154878</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.00923120240123009</v>
+        <v>0.008844991431529873</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.04546231190756563</v>
+        <v>0.04459925889580797</v>
       </c>
     </row>
     <row r="45">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>6399</v>
+        <v>5995</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01414941907999601</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04973844286764595</v>
+        <v>0.04659813570164265</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>6185</v>
+        <v>6171</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01227600690385153</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.04171012812102918</v>
+        <v>0.04161080208670619</v>
       </c>
     </row>
     <row r="47">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>6333</v>
+        <v>6371</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.01428250147204913</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.04922001994957085</v>
+        <v>0.04951386427544026</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>3241</v>
+        <v>3163</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.03411112495729159</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1650586947535357</v>
+        <v>0.161092155275955</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3</v>
@@ -3500,19 +3500,19 @@
         <v>2507</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>6928</v>
+        <v>6543</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.01690785198738973</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.004545568182547743</v>
+        <v>0.004524447632852935</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.04671631468703818</v>
+        <v>0.04412274401378018</v>
       </c>
     </row>
     <row r="48">
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>4724</v>
+        <v>4211</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01041015288330169</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03671879532763313</v>
+        <v>0.03273058776190561</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>3122</v>
+        <v>3439</v>
       </c>
       <c r="N48" s="6" t="n">
-        <v>0.03288502520865947</v>
+        <v>0.03288502520865948</v>
       </c>
       <c r="O48" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1589868254111944</v>
+        <v>0.1751404375161608</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3</v>
@@ -3571,19 +3571,19 @@
         <v>1985</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>5978</v>
+        <v>5402</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.01338587218552691</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.00432015995131297</v>
+        <v>0.004326946952703808</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.04031371192041887</v>
+        <v>0.03642815456063078</v>
       </c>
     </row>
     <row r="49">
@@ -3600,19 +3600,19 @@
         <v>2980</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>954</v>
+        <v>1035</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>6955</v>
+        <v>6663</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>0.02316420033014502</v>
+        <v>0.02316420033014503</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.007417829955185811</v>
+        <v>0.008043893802496645</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.05406000919762328</v>
+        <v>0.05178857782031536</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>1</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>2319</v>
+        <v>3144</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.02564341095531386</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1181254708607098</v>
+        <v>0.1601042777734318</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>6</v>
@@ -3642,19 +3642,19 @@
         <v>3484</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1327</v>
+        <v>1387</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>7290</v>
+        <v>7119</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.02349245291395494</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.008949493196774343</v>
+        <v>0.009350118130916586</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.04915764694945764</v>
+        <v>0.04800785974899523</v>
       </c>
     </row>
     <row r="50">
@@ -3671,19 +3671,19 @@
         <v>121940</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>115594</v>
+        <v>116390</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>125406</v>
+        <v>125622</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.9477580461857985</v>
+        <v>0.9477580461857986</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8984325619945718</v>
+        <v>0.9046157570556406</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.9746931634578263</v>
+        <v>0.9763710772406984</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>30</v>
@@ -3692,19 +3692,19 @@
         <v>17617</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>15157</v>
+        <v>14704</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>19023</v>
+        <v>19133</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.897241953294978</v>
+        <v>0.8972419532949779</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.771953238035491</v>
+        <v>0.7488481657659318</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.9688207308433758</v>
+        <v>0.9744159155505081</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>207</v>
@@ -3713,19 +3713,19 @@
         <v>139558</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>133106</v>
+        <v>133641</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>143170</v>
+        <v>143576</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.9410696116304388</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.8975617808310783</v>
+        <v>0.9011716194372642</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.9654300899705531</v>
+        <v>0.9681679898493863</v>
       </c>
     </row>
     <row r="51">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>4040</v>
+        <v>4644</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.007059199803832242</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.03139625245438617</v>
+        <v>0.0360925228523858</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>2</v>
@@ -3766,16 +3766,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>3098</v>
+        <v>2780</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.04422961054104854</v>
+        <v>0.04422961054104855</v>
       </c>
       <c r="O51" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.1577724838905436</v>
+        <v>0.1415770706944949</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>3</v>
@@ -3784,19 +3784,19 @@
         <v>1777</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>5320</v>
+        <v>5823</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.01198063860451354</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.002884618402070969</v>
+        <v>0.002902910161303222</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.03587183354333892</v>
+        <v>0.0392633011103</v>
       </c>
     </row>
     <row r="52">
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>3129</v>
+        <v>2863</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.00444028885858347</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.02432008897036033</v>
+        <v>0.022251881652686</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>3456</v>
+        <v>2849</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.003852385484866214</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.02330190847155123</v>
+        <v>0.01921433876310993</v>
       </c>
     </row>
     <row r="53">
@@ -3880,19 +3880,19 @@
         <v>4585</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1657</v>
+        <v>1701</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>10489</v>
+        <v>10573</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.006944163213848445</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.002509826645403368</v>
+        <v>0.002576486644831449</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.01588789080339479</v>
+        <v>0.01601502253598094</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>9</v>
@@ -3901,19 +3901,19 @@
         <v>6089</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>2691</v>
+        <v>3036</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>12252</v>
+        <v>11487</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.01664149189721819</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.007353898217040997</v>
+        <v>0.008297108238052317</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.03348647827274025</v>
+        <v>0.03139476595046616</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>14</v>
@@ -3922,19 +3922,19 @@
         <v>10674</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>5852</v>
+        <v>5666</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>17707</v>
+        <v>17393</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.01040203845404888</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.005702750263908251</v>
+        <v>0.005521498094921115</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.01725605125594193</v>
+        <v>0.01695029292335017</v>
       </c>
     </row>
     <row r="54">
@@ -3951,19 +3951,19 @@
         <v>27705</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>18807</v>
+        <v>18284</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>39869</v>
+        <v>40983</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.04196366107413282</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.02848530698147079</v>
+        <v>0.02769325028483904</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.06038681308309774</v>
+        <v>0.0620748873319604</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>14</v>
@@ -3972,19 +3972,19 @@
         <v>9888</v>
       </c>
       <c r="L54" s="5" t="n">
-        <v>5565</v>
+        <v>5729</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>16496</v>
+        <v>16188</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.02702402192437316</v>
       </c>
       <c r="O54" s="6" t="n">
-        <v>0.01520908834573048</v>
+        <v>0.01565730757290641</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.04508420417013683</v>
+        <v>0.04424375359401278</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>40</v>
@@ -3993,19 +3993,19 @@
         <v>37593</v>
       </c>
       <c r="S54" s="5" t="n">
-        <v>27974</v>
+        <v>27555</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>51758</v>
+        <v>50121</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.0366364818064985</v>
       </c>
       <c r="V54" s="6" t="n">
-        <v>0.02726200476101445</v>
+        <v>0.02685426984227813</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.050441035478057</v>
+        <v>0.04884612640171865</v>
       </c>
     </row>
     <row r="55">
@@ -4022,19 +4022,19 @@
         <v>4923</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1703</v>
+        <v>2042</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>10561</v>
+        <v>10164</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>0.00745699602364988</v>
+        <v>0.007456996023649879</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.002579617397570494</v>
+        <v>0.003092540472780464</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.01599621755940292</v>
+        <v>0.0153951064767929</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>11</v>
@@ -4043,19 +4043,19 @@
         <v>7092</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>3895</v>
+        <v>3589</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>12764</v>
+        <v>12540</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.01938400141814601</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.01064531495830581</v>
+        <v>0.009809179277560988</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03488596073916921</v>
+        <v>0.03427278804969499</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>17</v>
@@ -4064,19 +4064,19 @@
         <v>12016</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>7246</v>
+        <v>7133</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>18833</v>
+        <v>18652</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.01170992979437918</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.007061578504998904</v>
+        <v>0.006951024410641445</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.01835334350998698</v>
+        <v>0.01817702244020405</v>
       </c>
     </row>
     <row r="56">
@@ -4093,19 +4093,19 @@
         <v>10345</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>6001</v>
+        <v>6084</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>16754</v>
+        <v>17066</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.0156692872289874</v>
+        <v>0.01566928722898739</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.009090066451794642</v>
+        <v>0.009215698926419028</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02537586947075615</v>
+        <v>0.02584937272819185</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>16</v>
@@ -4114,19 +4114,19 @@
         <v>10457</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>5889</v>
+        <v>6505</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>16020</v>
+        <v>16836</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.02857999383712606</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01609507592326599</v>
+        <v>0.01777836534581995</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.04378454501776376</v>
+        <v>0.04601404140220917</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>31</v>
@@ -4135,19 +4135,19 @@
         <v>20802</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>14831</v>
+        <v>14188</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>29944</v>
+        <v>28121</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.0202729893588673</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.01445394133288805</v>
+        <v>0.01382652726175824</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.02918170949054575</v>
+        <v>0.02740549560360868</v>
       </c>
     </row>
     <row r="57">
@@ -4164,19 +4164,19 @@
         <v>590654</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>573049</v>
+        <v>572430</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>605382</v>
+        <v>605090</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.894634102091688</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.8679674533782626</v>
+        <v>0.8670308574323653</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.9169416397889747</v>
+        <v>0.9164981926433304</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>470</v>
@@ -4185,19 +4185,19 @@
         <v>330202</v>
       </c>
       <c r="L57" s="5" t="n">
-        <v>319635</v>
+        <v>320604</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>338618</v>
+        <v>339063</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.9024613648130564</v>
       </c>
       <c r="O57" s="6" t="n">
-        <v>0.8735816153412042</v>
+        <v>0.8762292197343785</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.9254627508654043</v>
+        <v>0.9266796079388769</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>1158</v>
@@ -4206,19 +4206,19 @@
         <v>920856</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>902537</v>
+        <v>902541</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>938056</v>
+        <v>938174</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.8974251488682274</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.8795726797158098</v>
+        <v>0.8795757053328891</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.9141870674529152</v>
+        <v>0.9143024162964509</v>
       </c>
     </row>
     <row r="58">
@@ -4235,19 +4235,19 @@
         <v>24430</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>16171</v>
+        <v>15125</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>38366</v>
+        <v>37848</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>0.03700244563604546</v>
+        <v>0.03700244563604547</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.02449291850169862</v>
+        <v>0.02290907820717243</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.05811094960363285</v>
+        <v>0.05732656723024927</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>17</v>
@@ -4256,19 +4256,19 @@
         <v>11498</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>7231</v>
+        <v>6600</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>18786</v>
+        <v>18528</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.03142607781560275</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.01976397785951483</v>
+        <v>0.01803770349200864</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.05134221283591692</v>
+        <v>0.05063811536776375</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>40</v>
@@ -4277,19 +4277,19 @@
         <v>35928</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>25916</v>
+        <v>26600</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>50984</v>
+        <v>50893</v>
       </c>
       <c r="U58" s="6" t="n">
-        <v>0.03501402337604439</v>
+        <v>0.03501402337604438</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.02525629866208581</v>
+        <v>0.02592352117620974</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.0496871103077462</v>
+        <v>0.0495980774712686</v>
       </c>
     </row>
     <row r="59">
@@ -4306,19 +4306,19 @@
         <v>2279</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>6603</v>
+        <v>6885</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.003451893499227466</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.0008712579064322233</v>
+        <v>0.0008634239635678775</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.01000150160717998</v>
+        <v>0.01042796307259804</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>1</v>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>1586</v>
+        <v>1965</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.001062858486171529</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.004335942564322261</v>
+        <v>0.005370147835688709</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>4</v>
@@ -4348,19 +4348,19 @@
         <v>2668</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>7118</v>
+        <v>6997</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.002600010956173618</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.0005606026291606271</v>
+        <v>0.0006062392325595361</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.006936989383118132</v>
+        <v>0.006819195980587522</v>
       </c>
     </row>
     <row r="60">
